--- a/Tugas5 Normalisasi Form.xlsx
+++ b/Tugas5 Normalisasi Form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
   <si>
     <t>Form Tidak Normal</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>Tabel Informasi Surat Tugas</t>
+  </si>
+  <si>
+    <t>Tabel Personel</t>
+  </si>
+  <si>
+    <t>Kesatuan_id</t>
+  </si>
+  <si>
+    <t>Agama_id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Wilayah_Id</t>
+  </si>
+  <si>
+    <t>3NF (Normalisasi Form)</t>
+  </si>
+  <si>
+    <t>Kota_Id</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,11 +273,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -269,6 +303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1060,7 +1098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1092,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1124,7 +1162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1156,7 +1194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -1188,7 +1226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1220,14 +1258,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -1261,7 +1299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1295,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>4</v>
       </c>
@@ -1312,7 +1350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -1328,13 +1366,22 @@
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -1347,8 +1394,29 @@
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1361,8 +1429,29 @@
       <c r="D32" s="5">
         <v>39452</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -1375,8 +1464,29 @@
       <c r="D33" s="10">
         <v>40653</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8">
+        <v>2</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1389,8 +1499,29 @@
       <c r="D34" s="5">
         <v>42003</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>2</v>
       </c>
@@ -1403,8 +1534,29 @@
       <c r="D35" s="10">
         <v>40543</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1417,8 +1569,23 @@
       <c r="D36" s="5">
         <v>40908</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="4">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>3</v>
       </c>
@@ -1431,8 +1598,17 @@
       <c r="D37" s="10">
         <v>41274</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -1445,8 +1621,29 @@
       <c r="D38" s="5">
         <v>41274</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>5</v>
       </c>
@@ -1459,8 +1656,29 @@
       <c r="D39" s="10">
         <v>40543</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1473,9 +1691,297 @@
       <c r="D40" s="5">
         <v>40908</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="8">
+        <v>2</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L43" s="3">
+        <v>5</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="8">
+        <v>6</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="5">
+        <v>39448</v>
+      </c>
+      <c r="E45" s="5">
+        <v>39452</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>7</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10">
+        <v>39819</v>
+      </c>
+      <c r="E46" s="10">
+        <v>40653</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5">
+        <v>40654</v>
+      </c>
+      <c r="E47" s="5">
+        <v>42003</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="10">
+        <v>40179</v>
+      </c>
+      <c r="E48" s="10">
+        <v>40543</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="5">
+        <v>40544</v>
+      </c>
+      <c r="E49" s="5">
+        <v>40908</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="10">
+        <v>40544</v>
+      </c>
+      <c r="E50" s="10">
+        <v>41274</v>
+      </c>
+      <c r="F50" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="5">
+        <v>40544</v>
+      </c>
+      <c r="E51" s="5">
+        <v>41274</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="10">
+        <v>39814</v>
+      </c>
+      <c r="E52" s="10">
+        <v>40543</v>
+      </c>
+      <c r="F52" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5">
+        <v>40179</v>
+      </c>
+      <c r="E53" s="5">
+        <v>40908</v>
+      </c>
+      <c r="F53" s="4">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
